--- a/static/uploads/patterns_data_solarpanels_hd_2__x0_11606_y0_13467_dxdy_832_1.jpeg.xlsx
+++ b/static/uploads/patterns_data_solarpanels_hd_2__x0_11606_y0_13467_dxdy_832_1.jpeg.xlsx
@@ -39,26 +39,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004f5051"/>
-        <bgColor rgb="004f5051"/>
+        <fgColor rgb="004d504f"/>
+        <bgColor rgb="004d504f"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007d7e80"/>
-        <bgColor rgb="007d7e80"/>
+        <fgColor rgb="00626a67"/>
+        <bgColor rgb="00626a67"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009b9c9b"/>
-        <bgColor rgb="009b9c9b"/>
+        <fgColor rgb="00999a98"/>
+        <bgColor rgb="00999a98"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00646768"/>
-        <bgColor rgb="00646768"/>
+        <fgColor rgb="00747a7d"/>
+        <bgColor rgb="00747a7d"/>
       </patternFill>
     </fill>
   </fills>
@@ -622,33 +622,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[114, 116, 117]</t>
+          <t>[111, 115, 114]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>151360</v>
+        <v>692224</v>
       </c>
       <c r="C2" t="n">
-        <v>60.544</v>
+        <v>276.8896</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'rgb': [100, 103, 104], 'hex': '#646768'}</t>
+          <t>{'rgb': [98, 106, 103], 'hex': '#626a67'}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>352</v>
+        <v>832</v>
       </c>
       <c r="H2" t="n">
-        <v>430</v>
+        <v>832</v>
       </c>
       <c r="I2" t="n">
-        <v>7.04</v>
+        <v>16.64</v>
       </c>
       <c r="J2" t="n">
-        <v>8.6</v>
+        <v>16.64</v>
       </c>
     </row>
   </sheetData>
@@ -708,12 +708,12 @@
       <c r="A2" s="2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#4f5051</t>
+          <t>#4d504f</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[79, 80, 81]</t>
+          <t>[77, 80, 79]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -727,12 +727,12 @@
       <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#7d7e80</t>
+          <t>#626a67</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[125, 126, 128]</t>
+          <t>[98, 106, 103]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -746,12 +746,12 @@
       <c r="A4" s="4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#9b9c9b</t>
+          <t>#999a98</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[155, 156, 155]</t>
+          <t>[153, 154, 152]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -765,12 +765,12 @@
       <c r="A5" s="5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#646768</t>
+          <t>#747a7d</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[100, 103, 104]</t>
+          <t>[116, 122, 125]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
